--- a/yourtour/documents/requirement/游徒APP的页面清单2.0.xlsx
+++ b/yourtour/documents/requirement/游徒APP的页面清单2.0.xlsx
@@ -1,25 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr date1904="1"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\yt\yourtour\documents\requirement\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8325"/>
+    <workbookView windowWidth="17293" windowHeight="8028"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27">
   <si>
     <t>Table 1</t>
   </si>
@@ -42,23 +37,39 @@
     <t>推荐</t>
   </si>
   <si>
-    <t>目的地</t>
+    <t>1、推荐首页</t>
   </si>
   <si>
-    <t>旅行车</t>
+    <t>2、编辑精选（资讯/活动）详情
+3、游徒推荐详情
+#、大家都在玩详情</t>
   </si>
   <si>
-    <t>个人中心</t>
-  </si>
-  <si>
-    <t>其他</t>
-  </si>
-  <si>
-    <t>1、推荐首页</t>
+    <t>目的地</t>
   </si>
   <si>
     <t>4、目的地首页（一屏概览）
 5、所有目的地列表页</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica"/>
+        <charset val="134"/>
+      </rPr>
+      <t>6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、目的地详情</t>
+    </r>
   </si>
   <si>
     <t>7、达人（列表）
@@ -84,61 +95,30 @@
   </si>
   <si>
     <t>20、定制行程
-21、当前行程详细
+21、随记
+#、记账
 22、计划中的行程详细
 23、待评价中的行程详细
 （*收藏的行程连接到13）
 24、当前行程聊天</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">25、写评价（对达人打标签）
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>费用</t>
-    </r>
+    <t>25、写评价（对达人打标签）</t>
+  </si>
+  <si>
+    <t>旅行车</t>
   </si>
   <si>
     <t>26、旅行车页</t>
   </si>
   <si>
-    <t>27、个人中心首页（测滑抽屉式）</t>
-  </si>
-  <si>
-    <t>37、私信详细（来往）
-38、写私信</t>
-  </si>
-  <si>
-    <t>2、广告（资讯/活动）详情
-3、行程详情
-#、大家都在玩详情</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>6</t>
-    </r>
     <r>
       <rPr>
         <sz val="10"/>
         <color indexed="8"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
+        <rFont val="Helvetica"/>
         <charset val="134"/>
       </rPr>
-      <t>、目的地详情</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
       <t>#</t>
     </r>
     <r>
@@ -146,17 +126,27 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>、达人详情
 #、服务详情
 #、游玩详情</t>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>个人中心</t>
+  </si>
+  <si>
+    <t>27、个人中心首页（测滑抽屉式）</t>
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>#、登录
 #、注册
 28、个人信息设置
@@ -179,7 +169,6 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">
@@ -188,10 +177,22 @@
 35、意见反馈
 36、我的钱包</t>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>#、积分收支页面
+#、某币收支页面</t>
+  </si>
+  <si>
+    <t>其他</t>
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica"/>
+        <charset val="134"/>
+      </rPr>
       <t>39</t>
     </r>
     <r>
@@ -199,7 +200,6 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">、搜索页
@@ -210,6 +210,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica"/>
+        <charset val="134"/>
       </rPr>
       <t>40</t>
     </r>
@@ -218,7 +219,6 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">、启动页
@@ -229,6 +229,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica"/>
+        <charset val="134"/>
       </rPr>
       <t>41</t>
     </r>
@@ -237,7 +238,6 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>、欢迎页</t>
@@ -247,6 +247,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">
 42</t>
@@ -256,52 +257,210 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>、广告页</t>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="27">
     <font>
       <sz val="12"/>
       <color indexed="8"/>
       <name val="Verdana"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="Helvetica"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color indexed="8"/>
       <name val="Helvetica"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color indexed="8"/>
-      <name val="Helvetica"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Helvetica"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Helvetica"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Helvetica"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Helvetica"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Helvetica"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Helvetica"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Helvetica"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Helvetica"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Helvetica"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Helvetica"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Helvetica"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Helvetica"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Helvetica"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Helvetica"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Helvetica"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Helvetica"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Helvetica"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Helvetica"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Helvetica"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Helvetica"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Helvetica"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
@@ -310,7 +469,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -320,23 +479,203 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="9"/>
-        <bgColor auto="1"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="10"/>
-        <bgColor auto="1"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -359,18 +698,263 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="32" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -378,46 +962,81 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
+    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
+    <cellStyle name="输入" xfId="4" builtinId="20"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
+    <cellStyle name="货币" xfId="7" builtinId="4"/>
+    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
+    <cellStyle name="百分比" xfId="9" builtinId="5"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
+    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
+    <cellStyle name="计算" xfId="15" builtinId="22"/>
+    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
+    <cellStyle name="适中" xfId="17" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
+    <cellStyle name="好" xfId="19" builtinId="26"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="差" xfId="22" builtinId="27"/>
+    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
+    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
+    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
+    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
+    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
+    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
+    <cellStyle name="标题" xfId="33" builtinId="15"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
+    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="注释" xfId="37" builtinId="10"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
+    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
+    <cellStyle name="超链接" xfId="41" builtinId="8"/>
+    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
+    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
+    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0"/>
   <colors>
     <indexedColors>
-      <rgbColor rgb="FF000000"/>
-      <rgbColor rgb="FFFFFFFF"/>
-      <rgbColor rgb="FFFF0000"/>
-      <rgbColor rgb="FF00FF00"/>
-      <rgbColor rgb="FF0000FF"/>
-      <rgbColor rgb="FFFFFF00"/>
-      <rgbColor rgb="FFFF00FF"/>
-      <rgbColor rgb="FF00FFFF"/>
-      <rgbColor rgb="FF000000"/>
-      <rgbColor rgb="FFBDC0BF"/>
-      <rgbColor rgb="FFDBDBDB"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00BDC0BF"/>
+      <rgbColor rgb="00DBDBDB"/>
       <rgbColor rgb="0000FF00"/>
       <rgbColor rgb="000000FF"/>
       <rgbColor rgb="00FFFF00"/>
@@ -473,14 +1092,6 @@
       <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -868,7 +1479,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr kumimoji="0" sz="1200" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
@@ -904,7 +1514,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
@@ -930,7 +1539,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
@@ -956,7 +1564,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
@@ -982,7 +1589,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
@@ -1008,7 +1614,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
@@ -1034,7 +1639,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
@@ -1060,7 +1664,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
@@ -1086,7 +1689,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
@@ -1112,7 +1714,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
@@ -1148,7 +1749,6 @@
           <a:prstDash val="solid"/>
           <a:miter lim="400000"/>
         </a:ln>
-        <a:effectLst/>
       </a:spPr>
       <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:noAutofit/>
@@ -1168,7 +1768,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
@@ -1194,7 +1793,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
@@ -1220,7 +1818,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
@@ -1246,7 +1843,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
@@ -1272,7 +1868,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
@@ -1298,7 +1893,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
@@ -1324,7 +1918,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
@@ -1350,7 +1943,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
@@ -1376,7 +1968,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
@@ -1402,7 +1993,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
@@ -1435,7 +2025,6 @@
           <a:noFill/>
           <a:miter lim="400000"/>
         </a:ln>
-        <a:effectLst/>
       </a:spPr>
       <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:spAutoFit/>
@@ -1455,7 +2044,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
@@ -1485,7 +2073,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
@@ -1511,7 +2098,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
@@ -1537,7 +2123,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
@@ -1563,7 +2148,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
@@ -1589,7 +2173,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
@@ -1615,7 +2198,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
@@ -1641,7 +2223,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
@@ -1667,7 +2248,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
@@ -1693,7 +2273,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
@@ -1725,342 +2304,343 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:IV23"/>
+  <dimension ref="A1:I23"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozenSplit"/>
+      <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="B8" sqref="B8"/>
+      <selection pane="bottomRight" activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="9.09765625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="12.8984375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="21.09765625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="15.796875" style="1" customWidth="1"/>
-    <col min="5" max="256" width="9.09765625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="9.09836065573771" style="1" customWidth="1"/>
+    <col min="2" max="2" width="12.9016393442623" style="1" customWidth="1"/>
+    <col min="3" max="3" width="21.0983606557377" style="1" customWidth="1"/>
+    <col min="4" max="4" width="15.7950819672131" style="1" customWidth="1"/>
+    <col min="5" max="5" width="12.8114754098361" style="1" customWidth="1"/>
+    <col min="6" max="256" width="9.09836065573771" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="A1" s="6" t="s">
+    <row r="1" ht="13.55" spans="1:9">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
+      <c r="B1"/>
+      <c r="C1"/>
+      <c r="D1"/>
+      <c r="E1"/>
+      <c r="F1"/>
+      <c r="G1"/>
+      <c r="H1"/>
+      <c r="I1"/>
     </row>
-    <row r="2" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
+    <row r="2" ht="22.5" customHeight="1" spans="1:9">
+      <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
     </row>
-    <row r="3" spans="1:9" ht="36.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="3" t="s">
+    <row r="3" ht="36.6" customHeight="1" spans="1:9">
+      <c r="A3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+    </row>
+    <row r="4" ht="78.4" customHeight="1" spans="1:9">
+      <c r="A4" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="D4" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+    </row>
+    <row r="5" ht="94.5" customHeight="1" spans="1:9">
+      <c r="A5" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" s="6"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+    </row>
+    <row r="6" ht="39" customHeight="1" spans="1:9">
+      <c r="A6" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+    </row>
+    <row r="7" ht="154.85" spans="1:9">
+      <c r="A7" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-    </row>
-    <row r="4" spans="1:9" ht="78.400000000000006" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" s="4" t="s">
+      <c r="C7" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
-    </row>
-    <row r="5" spans="1:9" ht="94.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="D5" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="E5" s="5"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
-    </row>
-    <row r="6" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C6" s="4" t="s">
+      <c r="D7" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
     </row>
-    <row r="7" spans="1:9" ht="144" x14ac:dyDescent="0.2">
-      <c r="A7" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C7" s="5" t="s">
+    <row r="8" ht="64.35" customHeight="1" spans="1:9">
+      <c r="A8" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="D7" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
-    </row>
-    <row r="8" spans="1:9" ht="64.349999999999994" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
     </row>
-    <row r="9" spans="1:9" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="3"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
+    <row r="9" ht="20.45" customHeight="1" spans="1:9">
+      <c r="A9" s="4"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
     </row>
-    <row r="10" spans="1:9" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="3"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4"/>
+    <row r="10" ht="20.45" customHeight="1" spans="1:9">
+      <c r="A10" s="4"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
     </row>
-    <row r="11" spans="1:9" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="3"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
-      <c r="I11" s="4"/>
+    <row r="11" ht="20.45" customHeight="1" spans="1:9">
+      <c r="A11" s="4"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
     </row>
-    <row r="12" spans="1:9" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="3"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
-      <c r="I12" s="4"/>
+    <row r="12" ht="20.45" customHeight="1" spans="1:9">
+      <c r="A12" s="4"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
     </row>
-    <row r="13" spans="1:9" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="3"/>
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="4"/>
-      <c r="I13" s="4"/>
+    <row r="13" ht="20.45" customHeight="1" spans="1:9">
+      <c r="A13" s="4"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="5"/>
     </row>
-    <row r="14" spans="1:9" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="3"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4"/>
-      <c r="I14" s="4"/>
+    <row r="14" ht="20.45" customHeight="1" spans="1:9">
+      <c r="A14" s="4"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="5"/>
     </row>
-    <row r="15" spans="1:9" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="3"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
-      <c r="H15" s="4"/>
-      <c r="I15" s="4"/>
+    <row r="15" ht="20.45" customHeight="1" spans="1:9">
+      <c r="A15" s="4"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="5"/>
     </row>
-    <row r="16" spans="1:9" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="3"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="4"/>
-      <c r="H16" s="4"/>
-      <c r="I16" s="4"/>
+    <row r="16" ht="20.45" customHeight="1" spans="1:9">
+      <c r="A16" s="4"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="5"/>
     </row>
-    <row r="17" spans="1:9" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="3"/>
-      <c r="B17" s="4"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="4"/>
-      <c r="I17" s="4"/>
+    <row r="17" ht="20.45" customHeight="1" spans="1:9">
+      <c r="A17" s="4"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="5"/>
     </row>
-    <row r="18" spans="1:9" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="3"/>
-      <c r="B18" s="4"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="4"/>
-      <c r="H18" s="4"/>
-      <c r="I18" s="4"/>
+    <row r="18" ht="20.45" customHeight="1" spans="1:9">
+      <c r="A18" s="4"/>
+      <c r="B18" s="5"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="5"/>
     </row>
-    <row r="19" spans="1:9" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="3"/>
-      <c r="B19" s="4"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4"/>
-      <c r="H19" s="4"/>
-      <c r="I19" s="4"/>
+    <row r="19" ht="20.45" customHeight="1" spans="1:9">
+      <c r="A19" s="4"/>
+      <c r="B19" s="5"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
+      <c r="I19" s="5"/>
     </row>
-    <row r="20" spans="1:9" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="3"/>
-      <c r="B20" s="4"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
-      <c r="G20" s="4"/>
-      <c r="H20" s="4"/>
-      <c r="I20" s="4"/>
+    <row r="20" ht="20.45" customHeight="1" spans="1:9">
+      <c r="A20" s="4"/>
+      <c r="B20" s="5"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5"/>
+      <c r="I20" s="5"/>
     </row>
-    <row r="21" spans="1:9" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="3"/>
-      <c r="B21" s="4"/>
-      <c r="C21" s="4"/>
-      <c r="D21" s="4"/>
-      <c r="E21" s="4"/>
-      <c r="F21" s="4"/>
-      <c r="G21" s="4"/>
-      <c r="H21" s="4"/>
-      <c r="I21" s="4"/>
+    <row r="21" ht="20.45" customHeight="1" spans="1:9">
+      <c r="A21" s="4"/>
+      <c r="B21" s="5"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="5"/>
+      <c r="I21" s="5"/>
     </row>
-    <row r="22" spans="1:9" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="3"/>
-      <c r="B22" s="4"/>
-      <c r="C22" s="4"/>
-      <c r="D22" s="4"/>
-      <c r="E22" s="4"/>
-      <c r="F22" s="4"/>
-      <c r="G22" s="4"/>
-      <c r="H22" s="4"/>
-      <c r="I22" s="4"/>
+    <row r="22" ht="20.45" customHeight="1" spans="1:9">
+      <c r="A22" s="4"/>
+      <c r="B22" s="5"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="5"/>
+      <c r="H22" s="5"/>
+      <c r="I22" s="5"/>
     </row>
-    <row r="23" spans="1:9" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="3"/>
-      <c r="B23" s="4"/>
-      <c r="C23" s="4"/>
-      <c r="D23" s="4"/>
-      <c r="E23" s="4"/>
-      <c r="F23" s="4"/>
-      <c r="G23" s="4"/>
-      <c r="H23" s="4"/>
-      <c r="I23" s="4"/>
+    <row r="23" ht="20.45" customHeight="1" spans="1:9">
+      <c r="A23" s="4"/>
+      <c r="B23" s="5"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="5"/>
+      <c r="H23" s="5"/>
+      <c r="I23" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:I1"/>
   </mergeCells>
-  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="1" orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;L&amp;"Helvetica,Regular"&amp;12&amp;K000000	&amp;P</oddFooter>
   </headerFooter>

--- a/yourtour/documents/requirement/游徒APP的页面清单2.0.xlsx
+++ b/yourtour/documents/requirement/游徒APP的页面清单2.0.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr date1904="1"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\Workspaces\yt\yourtour\documents\requirement\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="17293" windowHeight="8028"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17295" windowHeight="8025"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
@@ -14,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>Table 1</t>
   </si>
@@ -40,160 +45,854 @@
     <t>1、推荐首页</t>
   </si>
   <si>
-    <t>2、编辑精选（资讯/活动）详情
-3、游徒推荐详情
-#、大家都在玩详情</t>
-  </si>
-  <si>
     <t>目的地</t>
-  </si>
-  <si>
-    <t>4、目的地首页（一屏概览）
-5、所有目的地列表页</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Helvetica"/>
-        <charset val="134"/>
-      </rPr>
-      <t>6</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>、目的地详情</t>
-    </r>
-  </si>
-  <si>
-    <t>7、达人（列表）
-8、游玩（列表）
-9、行程（列表）
-10、百科（列表）</t>
-  </si>
-  <si>
-    <t>11、达人详细
-12、游玩详细
-13、行程详细
-14、百科详细
-15、发布百科</t>
   </si>
   <si>
     <t>行程</t>
   </si>
   <si>
-    <t>16、当前行程
-17、计划中的行程
-18、待评价的行程
-19、收藏的行程</t>
-  </si>
-  <si>
-    <t>20、定制行程
-21、随记
-#、记账
-22、计划中的行程详细
-23、待评价中的行程详细
-（*收藏的行程连接到13）
-24、当前行程聊天</t>
-  </si>
-  <si>
-    <t>25、写评价（对达人打标签）</t>
-  </si>
-  <si>
     <t>旅行车</t>
-  </si>
-  <si>
-    <t>26、旅行车页</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Helvetica"/>
-        <charset val="134"/>
-      </rPr>
-      <t>#</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>、达人详情
-#、服务详情
-#、游玩详情</t>
-    </r>
   </si>
   <si>
     <t>个人中心</t>
   </si>
   <si>
-    <t>27、个人中心首页（测滑抽屉式）</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>#、登录
-#、注册
-28、个人信息设置
-29、我的收藏
-30、我关注的人
-31、关注我的人
-32、我的私信</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>（可做成一级的快捷入口）</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-33、足迹（即去过）
-34、想去
-35、意见反馈
-36、我的钱包</t>
-    </r>
-  </si>
-  <si>
-    <t>#、积分收支页面
-#、某币收支页面</t>
-  </si>
-  <si>
     <t>其他</t>
   </si>
   <si>
+    <t>2、编辑精选（资讯/活动）详情
+3、游徒推荐详情
+4、大家都在玩详情</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">、目的地首页（一屏概览）
+</t>
+    </r>
     <r>
       <rPr>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica"/>
-        <charset val="134"/>
-      </rPr>
-      <t>39</t>
+        <family val="2"/>
+      </rPr>
+      <t>6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、所有目的地列表页</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、目的地详情</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">、达人（列表）
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica"/>
+        <family val="2"/>
+      </rPr>
+      <t>9</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">、游玩（列表）
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica"/>
+        <family val="2"/>
+      </rPr>
+      <t>10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">、行程（列表）
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica"/>
+        <family val="2"/>
+      </rPr>
+      <t>11</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、百科（列表）</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>12</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">、达人详细
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica"/>
+        <family val="2"/>
+      </rPr>
+      <t>13</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">、游玩详细
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica"/>
+        <family val="2"/>
+      </rPr>
+      <t>14</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">、行程详细
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica"/>
+        <family val="2"/>
+      </rPr>
+      <t>15</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">、百科详细
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica"/>
+        <family val="2"/>
+      </rPr>
+      <t>16</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、发布百科</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>17</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">、当前行程
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica"/>
+        <family val="2"/>
+      </rPr>
+      <t>18</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">、计划中的行程
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica"/>
+        <family val="2"/>
+      </rPr>
+      <t>19</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">、待评价的行程
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica"/>
+        <family val="2"/>
+      </rPr>
+      <t>20</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、收藏的行程</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>21</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">、定制行程
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica"/>
+        <family val="2"/>
+      </rPr>
+      <t>22</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">、随记
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica"/>
+        <family val="2"/>
+      </rPr>
+      <t>23</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">、记账
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica"/>
+        <family val="2"/>
+      </rPr>
+      <t>24</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">、计划中的行程详细
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica"/>
+        <family val="2"/>
+      </rPr>
+      <t>25</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、待评价中的行程详细
+（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica"/>
+        <family val="2"/>
+      </rPr>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>收藏的行程连接到</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica"/>
+        <family val="2"/>
+      </rPr>
+      <t>13</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">）
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica"/>
+        <family val="2"/>
+      </rPr>
+      <t>26</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、当前行程聊天</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、写评价（对达人打标签）</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>27</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、旅行车页</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>28</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、个人中心首页（测滑抽屉式）</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>29</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">、登录
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>30</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">、注册
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>31</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">、个人信息设置
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>32</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、我的收藏
+3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、我关注的人
+3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、关注我的人
+3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、我的私信</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（可做成一级的快捷入口）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、足迹（即去过）
+3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、想去
+3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、意见反馈
+3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>9</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、我的钱包</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>40</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">、积分收支页面
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica"/>
+        <family val="2"/>
+      </rPr>
+      <t>41</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica"/>
+        <family val="2"/>
+      </rPr>
+      <t>"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>游币</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica"/>
+        <family val="2"/>
+      </rPr>
+      <t>"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>收支页面</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>42</t>
     </r>
     <r>
       <rPr>
@@ -210,9 +909,9 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica"/>
-        <charset val="134"/>
-      </rPr>
-      <t>40</t>
+        <family val="2"/>
+      </rPr>
+      <t>43</t>
     </r>
     <r>
       <rPr>
@@ -229,9 +928,9 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica"/>
-        <charset val="134"/>
-      </rPr>
-      <t>41</t>
+        <family val="2"/>
+      </rPr>
+      <t>44</t>
     </r>
     <r>
       <rPr>
@@ -247,33 +946,28 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">
-42</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>、广告页</t>
-    </r>
+45</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、广告活动页</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="27">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color indexed="8"/>
@@ -284,20 +978,20 @@
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Helvetica"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
       <color indexed="8"/>
       <name val="Helvetica"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Helvetica"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -312,164 +1006,32 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Helvetica"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Helvetica"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Helvetica"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Helvetica"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Helvetica"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Helvetica"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Helvetica"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Helvetica"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Helvetica"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Helvetica"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Helvetica"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Helvetica"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Helvetica"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Helvetica"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Helvetica"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Helvetica"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Helvetica"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Helvetica"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Helvetica"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Helvetica"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="10"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="35">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -488,194 +1050,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="10">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -698,263 +1074,18 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="32" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -968,61 +1099,23 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
-    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
-    <cellStyle name="输入" xfId="4" builtinId="20"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
-    <cellStyle name="货币" xfId="7" builtinId="4"/>
-    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
-    <cellStyle name="百分比" xfId="9" builtinId="5"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
-    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
-    <cellStyle name="计算" xfId="15" builtinId="22"/>
-    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
-    <cellStyle name="适中" xfId="17" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
-    <cellStyle name="好" xfId="19" builtinId="26"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="差" xfId="22" builtinId="27"/>
-    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
-    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
-    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
-    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
-    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
-    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
-    <cellStyle name="标题" xfId="33" builtinId="15"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
-    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="注释" xfId="37" builtinId="10"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
-    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
-    <cellStyle name="超链接" xfId="41" builtinId="8"/>
-    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
-    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
-    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0"/>
   <colors>
     <indexedColors>
@@ -1092,6 +1185,14 @@
       <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -2304,343 +2405,341 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:I23"/>
+  <dimension ref="A1:IV23"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozenSplit"/>
-      <selection/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B7" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F4" sqref="F4"/>
+      <selection pane="bottomRight" activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.09836065573771" style="1" customWidth="1"/>
-    <col min="2" max="2" width="12.9016393442623" style="1" customWidth="1"/>
-    <col min="3" max="3" width="21.0983606557377" style="1" customWidth="1"/>
-    <col min="4" max="4" width="15.7950819672131" style="1" customWidth="1"/>
-    <col min="5" max="5" width="12.8114754098361" style="1" customWidth="1"/>
-    <col min="6" max="256" width="9.09836065573771" style="1" customWidth="1"/>
+    <col min="1" max="1" width="9.09765625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="12.8984375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="21.09765625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="15.796875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="12.796875" style="1" customWidth="1"/>
+    <col min="6" max="256" width="9.09765625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="13.55" spans="1:9">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1"/>
-      <c r="C1"/>
-      <c r="D1"/>
-      <c r="E1"/>
-      <c r="F1"/>
-      <c r="G1"/>
-      <c r="H1"/>
-      <c r="I1"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
     </row>
-    <row r="2" ht="22.5" customHeight="1" spans="1:9">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
     </row>
-    <row r="3" ht="36.6" customHeight="1" spans="1:9">
-      <c r="A3" s="4" t="s">
+    <row r="3" spans="1:9" ht="36.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+    </row>
+    <row r="4" spans="1:9" ht="78.400000000000006" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
+      <c r="B4" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
     </row>
-    <row r="4" ht="78.4" customHeight="1" spans="1:9">
-      <c r="A4" s="4" t="s">
+    <row r="5" spans="1:9" ht="94.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B5" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" s="5"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+    </row>
+    <row r="6" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="B6" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+    </row>
+    <row r="7" spans="1:9" ht="144" x14ac:dyDescent="0.2">
+      <c r="A7" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="B7" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+    </row>
+    <row r="8" spans="1:9" ht="64.349999999999994" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
-    </row>
-    <row r="5" ht="94.5" customHeight="1" spans="1:9">
-      <c r="A5" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="E5" s="6"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
-    </row>
-    <row r="6" ht="39" customHeight="1" spans="1:9">
-      <c r="A6" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
-    </row>
-    <row r="7" ht="154.85" spans="1:9">
-      <c r="A7" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
-    </row>
-    <row r="8" ht="64.35" customHeight="1" spans="1:9">
-      <c r="A8" s="4" t="s">
+      <c r="B8" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B8" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="5"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
     </row>
-    <row r="9" ht="20.45" customHeight="1" spans="1:9">
-      <c r="A9" s="4"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="5"/>
+    <row r="9" spans="1:9" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="3"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
     </row>
-    <row r="10" ht="20.45" customHeight="1" spans="1:9">
-      <c r="A10" s="4"/>
-      <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
-      <c r="I10" s="5"/>
+    <row r="10" spans="1:9" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="3"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
     </row>
-    <row r="11" ht="20.45" customHeight="1" spans="1:9">
-      <c r="A11" s="4"/>
-      <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
-      <c r="I11" s="5"/>
+    <row r="11" spans="1:9" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="3"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
     </row>
-    <row r="12" ht="20.45" customHeight="1" spans="1:9">
-      <c r="A12" s="4"/>
-      <c r="B12" s="5"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
-      <c r="I12" s="5"/>
+    <row r="12" spans="1:9" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="3"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
     </row>
-    <row r="13" ht="20.45" customHeight="1" spans="1:9">
-      <c r="A13" s="4"/>
-      <c r="B13" s="5"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="5"/>
+    <row r="13" spans="1:9" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="3"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
     </row>
-    <row r="14" ht="20.45" customHeight="1" spans="1:9">
-      <c r="A14" s="4"/>
-      <c r="B14" s="5"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="5"/>
-      <c r="I14" s="5"/>
+    <row r="14" spans="1:9" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="3"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="4"/>
     </row>
-    <row r="15" ht="20.45" customHeight="1" spans="1:9">
-      <c r="A15" s="4"/>
-      <c r="B15" s="5"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
-      <c r="H15" s="5"/>
-      <c r="I15" s="5"/>
+    <row r="15" spans="1:9" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="3"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="4"/>
     </row>
-    <row r="16" ht="20.45" customHeight="1" spans="1:9">
-      <c r="A16" s="4"/>
-      <c r="B16" s="5"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5"/>
-      <c r="H16" s="5"/>
-      <c r="I16" s="5"/>
+    <row r="16" spans="1:9" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="3"/>
+      <c r="B16" s="4"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="4"/>
     </row>
-    <row r="17" ht="20.45" customHeight="1" spans="1:9">
-      <c r="A17" s="4"/>
-      <c r="B17" s="5"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
-      <c r="H17" s="5"/>
-      <c r="I17" s="5"/>
+    <row r="17" spans="1:9" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="3"/>
+      <c r="B17" s="4"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="4"/>
     </row>
-    <row r="18" ht="20.45" customHeight="1" spans="1:9">
-      <c r="A18" s="4"/>
-      <c r="B18" s="5"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="5"/>
-      <c r="H18" s="5"/>
-      <c r="I18" s="5"/>
+    <row r="18" spans="1:9" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="3"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="4"/>
     </row>
-    <row r="19" ht="20.45" customHeight="1" spans="1:9">
-      <c r="A19" s="4"/>
-      <c r="B19" s="5"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="5"/>
-      <c r="I19" s="5"/>
+    <row r="19" spans="1:9" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="3"/>
+      <c r="B19" s="4"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="4"/>
+      <c r="I19" s="4"/>
     </row>
-    <row r="20" ht="20.45" customHeight="1" spans="1:9">
-      <c r="A20" s="4"/>
-      <c r="B20" s="5"/>
-      <c r="C20" s="5"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
-      <c r="F20" s="5"/>
-      <c r="G20" s="5"/>
-      <c r="H20" s="5"/>
-      <c r="I20" s="5"/>
+    <row r="20" spans="1:9" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="3"/>
+      <c r="B20" s="4"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="4"/>
+      <c r="I20" s="4"/>
     </row>
-    <row r="21" ht="20.45" customHeight="1" spans="1:9">
-      <c r="A21" s="4"/>
-      <c r="B21" s="5"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
-      <c r="F21" s="5"/>
-      <c r="G21" s="5"/>
-      <c r="H21" s="5"/>
-      <c r="I21" s="5"/>
+    <row r="21" spans="1:9" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="3"/>
+      <c r="B21" s="4"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="4"/>
+      <c r="I21" s="4"/>
     </row>
-    <row r="22" ht="20.45" customHeight="1" spans="1:9">
-      <c r="A22" s="4"/>
-      <c r="B22" s="5"/>
-      <c r="C22" s="5"/>
-      <c r="D22" s="5"/>
-      <c r="E22" s="5"/>
-      <c r="F22" s="5"/>
-      <c r="G22" s="5"/>
-      <c r="H22" s="5"/>
-      <c r="I22" s="5"/>
+    <row r="22" spans="1:9" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="3"/>
+      <c r="B22" s="4"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="4"/>
+      <c r="H22" s="4"/>
+      <c r="I22" s="4"/>
     </row>
-    <row r="23" ht="20.45" customHeight="1" spans="1:9">
-      <c r="A23" s="4"/>
-      <c r="B23" s="5"/>
-      <c r="C23" s="5"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="5"/>
-      <c r="F23" s="5"/>
-      <c r="G23" s="5"/>
-      <c r="H23" s="5"/>
-      <c r="I23" s="5"/>
+    <row r="23" spans="1:9" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="3"/>
+      <c r="B23" s="4"/>
+      <c r="C23" s="4"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="4"/>
+      <c r="H23" s="4"/>
+      <c r="I23" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:I1"/>
   </mergeCells>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="1" orientation="portrait"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
   <headerFooter>
     <oddFooter>&amp;L&amp;"Helvetica,Regular"&amp;12&amp;K000000	&amp;P</oddFooter>
   </headerFooter>
